--- a/data/income_statement/1digit/size/S_IS_MICRO.xlsx
+++ b/data/income_statement/1digit/size/S_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>S-Other services activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>S-Other services activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,287 +841,327 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>750598.8875699999</v>
+        <v>776834.50772</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>848697.0394700001</v>
+        <v>876754.4496099999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1128256.73661</v>
+        <v>1164058.9111</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1165127.08899</v>
+        <v>1215290.52594</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1105883.45869</v>
+        <v>1168766.36286</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>701010.66701</v>
+        <v>753279.5074700001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>708849.9813</v>
+        <v>770001.4327799999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>775443.2615</v>
+        <v>853848.6828800001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>933814.42015</v>
+        <v>1041150.05503</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1410243.63799</v>
+        <v>1492640.77812</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1553532.7001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1752122.04042</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1754334.593</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>709080.81619</v>
+        <v>732144.1851</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>799562.98927</v>
+        <v>824589.18654</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1072199.01452</v>
+        <v>1105098.70255</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1122149.85292</v>
+        <v>1168726.70013</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>950930.5450900001</v>
+        <v>1009026.61188</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>658484.41922</v>
+        <v>703530.34223</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>660001.32114</v>
+        <v>717030.0530599999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>724017.0586900001</v>
+        <v>795106.3968299999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>875945.58634</v>
+        <v>974140.0308399999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1330717.5852</v>
+        <v>1405701.83959</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1446744.23273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1617613.6862</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1642252.404</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>18291.13793</v>
+        <v>19868.64379</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>15587.53844</v>
+        <v>15919.79333</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>17543.89045</v>
+        <v>18684.50716</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>13728.95535</v>
+        <v>14387.01816</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>125030.47206</v>
+        <v>125987.34648</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>17347.11991</v>
+        <v>19176.18723</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>18424.82802</v>
+        <v>18599.48987</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>16210.53079</v>
+        <v>18053.20334</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>22715.25425</v>
+        <v>24147.6013</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>24807.8006</v>
+        <v>29819.62298</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>46617.66901000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>59201.08632</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>56729.507</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>23226.93345</v>
+        <v>24821.67883</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>33546.51176</v>
+        <v>36245.46974</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>38513.83164</v>
+        <v>40275.70139</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>29248.28072</v>
+        <v>32176.80765</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>29922.44154</v>
+        <v>33752.4045</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>25179.12788</v>
+        <v>30572.97801</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>30423.83214</v>
+        <v>34371.88985</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>35215.67202</v>
+        <v>40689.08271</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>35153.57956000001</v>
+        <v>42862.42289</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>54718.25219</v>
+        <v>57119.31555</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>60170.79836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>75307.26790000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>55352.682</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>6715.223889999999</v>
+        <v>6994.18354</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>4623.71775</v>
+        <v>5577.055479999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>3950.44084</v>
+        <v>4066.58568</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>4062.91823</v>
+        <v>4681.11534</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3256.01048</v>
+        <v>3519.72194</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2059.30681</v>
+        <v>2158.53795</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1998.0215</v>
+        <v>2317.68789</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2346.08415</v>
+        <v>3080.59206</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1490.94598</v>
+        <v>2159.95572</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>5879.36539</v>
+        <v>6128.90834</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>6483.34215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14777.79822</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>16011.796</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>4696.95955</v>
+        <v>4912.80109</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>3908.90321</v>
+        <v>4821.72087</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3166.92934</v>
+        <v>3222.25337</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>3383.81391</v>
+        <v>3964.77824</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2644.01856</v>
+        <v>2906.85596</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1623.40172</v>
+        <v>1721.63967</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1868.53432</v>
+        <v>1919.94186</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>2050.34216</v>
+        <v>2495.76285</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1183.89705</v>
+        <v>1561.39361</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>4715.80955</v>
+        <v>4959.627509999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>5366.94015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>13605.55922</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>15087.247</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1693.31426</v>
+        <v>1756.43237</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>398.96351</v>
+        <v>439.48358</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>656.43625</v>
+        <v>716.7070600000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>472.82706</v>
+        <v>510.05984</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>412.87602</v>
+        <v>413.65802</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>350.22456</v>
+        <v>351.21775</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>95.48823000000002</v>
+        <v>363.74708</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>113.14956</v>
+        <v>396.80452</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>250.24383</v>
+        <v>515.53694</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>767.48927</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>653.8718699999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>679.8063199999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>572.436</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>324.95008</v>
@@ -1229,13 +1170,13 @@
         <v>315.85103</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>127.07525</v>
+        <v>127.62525</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>206.27726</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>199.1159</v>
+        <v>199.20796</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>85.68053</v>
@@ -1244,334 +1185,379 @@
         <v>33.99894999999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>182.59243</v>
+        <v>188.02469</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>56.8051</v>
+        <v>83.02517</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>396.06657</v>
+        <v>401.79156</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>462.53013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>492.43268</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>352.113</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>743883.6636800001</v>
+        <v>769840.3241800001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>844073.32172</v>
+        <v>871177.3941300001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1124306.29577</v>
+        <v>1159992.32542</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1161064.17076</v>
+        <v>1210609.4106</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1102627.44821</v>
+        <v>1165246.64092</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>698951.3602</v>
+        <v>751120.9695199999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>706851.9598</v>
+        <v>767683.74489</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>773097.1773499999</v>
+        <v>850768.0908199999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>932323.4741699999</v>
+        <v>1038990.09931</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1404364.2726</v>
+        <v>1486511.86978</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1547049.35795</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1737344.2422</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1738322.797</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>541937.35812</v>
+        <v>559769.61022</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>618840.60974</v>
+        <v>638643.4389000001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>869277.95425</v>
+        <v>896322.7599300001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>900740.63573</v>
+        <v>937855.75851</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>877517.5392999999</v>
+        <v>924437.07852</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>501820.45042</v>
+        <v>536239.36723</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>511093.42763</v>
+        <v>553863.2829700001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>560008.0188099999</v>
+        <v>616234.2522999999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>701382.72031</v>
+        <v>778000.63688</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1037869.62153</v>
+        <v>1093856.65321</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1157258.40699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1301192.68643</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1320015.92</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>44658.62778</v>
+        <v>47136.10085</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>48832.23686</v>
+        <v>51206.97188</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>51299.97727</v>
+        <v>55879.64551</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>45052.37268</v>
+        <v>50141.31846</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>28852.14194</v>
+        <v>32373.4587</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>22611.75068</v>
+        <v>25228.31408</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>21873.77001</v>
+        <v>24522.33501</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>26682.86254</v>
+        <v>29324.44603</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>32849.75079</v>
+        <v>37917.77914</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>62672.46791000001</v>
+        <v>66713.60608</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>67997.05249000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>79570.76284000001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>65241.268</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>300269.54065</v>
+        <v>309345.8512799999</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>344718.26905</v>
+        <v>352939.1275</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>570046.3913100001</v>
+        <v>584435.6715000001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>587249.0316799999</v>
+        <v>607573.33964</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>628282.3113299999</v>
+        <v>658615.32522</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>263851.16148</v>
+        <v>283763.75765</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>244601.63724</v>
+        <v>266608.29697</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>257493.62909</v>
+        <v>283151.4836699999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>327456.65217</v>
+        <v>359857.24583</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>489832.28025</v>
+        <v>519538.0600999999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>493692.94751</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>568039.78588</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>662481.3419999999</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>195020.9685</v>
+        <v>201250.89353</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>220135.41428</v>
+        <v>229207.76624</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>243990.9545</v>
+        <v>252066.81175</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>263802.96167</v>
+        <v>275421.24717</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>216314.30957</v>
+        <v>229224.73234</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>213649.00805</v>
+        <v>225523.74163</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>242043.18356</v>
+        <v>260027.56422</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>272869.69602</v>
+        <v>300644.0106</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>337787.25818</v>
+        <v>376487.78225</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>477279.4645600001</v>
+        <v>498256.2036</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>586987.9291000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>643585.21537</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>581101.844</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1988.22119</v>
+        <v>2036.76456</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>5154.68955</v>
+        <v>5289.573280000001</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>3940.63117</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>4636.2697</v>
+        <v>4719.85324</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>4068.77646</v>
+        <v>4223.562260000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1708.53021</v>
+        <v>1723.55387</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>2574.83682</v>
+        <v>2705.08677</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2961.83116</v>
+        <v>3114.312</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>3289.05917</v>
+        <v>3737.82966</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>8085.408810000001</v>
+        <v>9348.783429999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>8580.47789</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>9996.922339999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>11191.466</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>201946.30556</v>
+        <v>210070.71396</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>225232.71198</v>
+        <v>232533.95523</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>255028.34152</v>
+        <v>263669.5654899999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>260323.53503</v>
+        <v>272753.65209</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>225109.90891</v>
+        <v>240809.5624</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>197130.90978</v>
+        <v>214881.60229</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>195758.53217</v>
+        <v>213820.46192</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>213089.15854</v>
+        <v>234533.83852</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>230940.75386</v>
+        <v>260989.46243</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>366494.65107</v>
+        <v>392655.21657</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>389790.95096</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>436151.55577</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>418306.877</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>204374.48771</v>
+        <v>213126.63526</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>227495.18588</v>
+        <v>236942.75596</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>265230.94202</v>
+        <v>277118.70503</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>270431.34112</v>
+        <v>289686.46526</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>242844.76978</v>
+        <v>263256.9884</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>214292.04353</v>
+        <v>234079.97243</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>221024.97437</v>
+        <v>246266.07314</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>253917.79266</v>
+        <v>288775.49381</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>285784.9369500001</v>
+        <v>329295.51594</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>409216.60304</v>
+        <v>433999.05587</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>472059.02577</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>518427.38851</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>480928.114</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1234.67776</v>
@@ -1580,22 +1566,22 @@
         <v>1388.29636</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1457.68471</v>
+        <v>1462.32323</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1233.20196</v>
+        <v>1446.44004</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1277.62532</v>
+        <v>1278.02803</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>480.67953</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>98.76937999999998</v>
+        <v>107.95062</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>150.92584</v>
+        <v>2238.38332</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>270.0895</v>
@@ -1604,175 +1590,200 @@
         <v>140.09354</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>901.7563200000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>936.6777499999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>229.644</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>19539.74953</v>
+        <v>20192.69355</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>23019.4728</v>
+        <v>23214.68327</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>27748.56232</v>
+        <v>29037.4526</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>30300.62438</v>
+        <v>31493.18196</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>26596.01922</v>
+        <v>28615.6886</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>23526.19793</v>
+        <v>24293.39297</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>21128.68271</v>
+        <v>22722.49706</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>22844.83298</v>
+        <v>25758.02447</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>29061.00401</v>
+        <v>32457.11701</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>44761.48658</v>
+        <v>46515.753</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>50328.00443</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>55980.20951000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>49415.054</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>183600.06042</v>
+        <v>191699.26395</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>203087.41672</v>
+        <v>212339.77633</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>236024.69499</v>
+        <v>246618.9292</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>238897.51478</v>
+        <v>256746.84326</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>214971.12524</v>
+        <v>233363.27177</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>190285.16607</v>
+        <v>209305.89993</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>199797.52228</v>
+        <v>223435.62546</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>230922.03384</v>
+        <v>260779.08602</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>256453.84344</v>
+        <v>296568.30943</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>364315.02292</v>
+        <v>387343.20933</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>420829.26502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>461510.50125</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>431283.416</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-2428.182150000001</v>
+        <v>-3055.9213</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-2262.4739</v>
+        <v>-4408.800730000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-10202.6005</v>
+        <v>-13449.13954</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-10107.80609</v>
+        <v>-16932.81317</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-17734.86087</v>
+        <v>-22447.426</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-17161.13375</v>
+        <v>-19198.37014</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-25266.44219999999</v>
+        <v>-32445.61122</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-40828.63412</v>
+        <v>-54241.65529</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-54844.18309000001</v>
+        <v>-68306.05351000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-42721.95197</v>
+        <v>-41343.8393</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-82268.07480999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-82275.83274000001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-62621.237</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>5357.79017</v>
+        <v>10995.81238</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>5376.49912</v>
+        <v>70538.81649</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>9220.835030000002</v>
+        <v>12766.36793</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>11322.8596</v>
+        <v>14981.22015</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>7506.607130000001</v>
+        <v>13728.05916</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>5905.85442</v>
+        <v>20378.74881</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>8757.084449999998</v>
+        <v>15530.909</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>11003.10097</v>
+        <v>17017.18139</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>10938.89952</v>
+        <v>19474.00018</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>19788.45055</v>
+        <v>33591.83527</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>19829.21174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>38709.20940000001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>68702.628</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>28.39373</v>
+        <v>3754.16791</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>10.53238</v>
+        <v>8525.17885</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>274.8132</v>
@@ -1784,28 +1795,33 @@
         <v>41.23861</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>17.03171</v>
+        <v>17.13499</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>24.44532</v>
+        <v>52.85013</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>15.58924</v>
+        <v>336.57661</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>5</v>
+        <v>344.79473</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>370.82463</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>290.8415899999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>305.95561</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>277.74</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>157.82559</v>
@@ -1840,77 +1856,87 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1133.31227</v>
+        <v>2121.3259</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>764.51102</v>
+        <v>2003.59137</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>809.15419</v>
+        <v>1525.71254</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>922.13714</v>
+        <v>1693.77126</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>710.6748600000001</v>
+        <v>1736.17532</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>535.41797</v>
+        <v>1852.83135</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>680.7403</v>
+        <v>2143.3695</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>984.77859</v>
+        <v>2581.65121</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>892.7990900000001</v>
+        <v>2945.7553</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>3077.30401</v>
+        <v>5479.2983</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>3449.37396</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>5628.90089</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>5119.334</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>407.59865</v>
+        <v>407.72646</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>365.19657</v>
+        <v>365.31541</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>551.42564</v>
+        <v>563.1092</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>269.99121</v>
+        <v>273.07558</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>452.42646</v>
+        <v>460.2535099999999</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>161.25824</v>
+        <v>161.31422</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>82.85234</v>
+        <v>89.69612000000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>107.39887</v>
+        <v>107.79054</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>97.19919999999999</v>
+        <v>323.88323</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>295.94887</v>
@@ -1918,26 +1944,31 @@
       <c r="M29" s="48" t="n">
         <v>250.98399</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>274.174</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>80.32177</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>160.66964</v>
+        <v>176.35202</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>5.836</v>
+        <v>90.19063</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>88.53595</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>112.41627</v>
+        <v>118.13227</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>53.825</v>
@@ -1949,97 +1980,112 @@
         <v>46.8071</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>35.20773000000001</v>
+        <v>64.08424000000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>27.50046</v>
+        <v>30.00046</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>369.9877</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>543.74</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>34.14848</v>
+        <v>42.17644</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>42.56228999999999</v>
+        <v>52587.492</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>76.31598999999999</v>
+        <v>77.14805</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>94.76723000000001</v>
+        <v>112.10052</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>61.05016000000001</v>
+        <v>92.21626000000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>71.74561</v>
+        <v>225.0121</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>55.84883</v>
+        <v>90.79347</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>49.77562</v>
+        <v>50.75868</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>47.74069</v>
+        <v>217.23785</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>72.89045999999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>111.33492</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>10683.99361</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>180.468</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>568.54236</v>
+        <v>1273.65783</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>615.4368000000001</v>
+        <v>3438.3944</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1031.9971</v>
+        <v>2704.71099</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>374.30388</v>
+        <v>1412.31597</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1024.73925</v>
+        <v>1845.26796</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>842.07976</v>
+        <v>6086.82368</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1601.81675</v>
+        <v>3295.0033</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1320.65318</v>
+        <v>2525.29891</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1098.48758</v>
+        <v>2514.11967</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>6528.84114</v>
+        <v>16739.43023</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4802.811390000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>10292.3276</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>18760.396</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0.39652</v>
@@ -2060,7 +2106,7 @@
         <v>23.365</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>11.0335</v>
+        <v>11.16286</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>22.8898</v>
@@ -2111,133 +2162,153 @@
         <v>313.3092</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>72.08457000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>72.21889000000002</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>1.951</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2924.361</v>
+        <v>3135.32416</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>3411.79643</v>
+        <v>3436.69845</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>6415.24725</v>
+        <v>7474.63766</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>9360.407150000001</v>
+        <v>11188.70383</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>5049.69397</v>
+        <v>9380.407680000002</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>4172.92692</v>
+        <v>11930.23826</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>6192.857720000001</v>
+        <v>9740.54393</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>8443.008959999999</v>
+        <v>11333.20893</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>8741.214599999999</v>
+        <v>13042.87453</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>8947.781779999999</v>
+        <v>10136.08312</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>10481.79362</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>11104.84111</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>43539.285</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>3060.90831</v>
+        <v>4522.718289999999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2701.51132</v>
+        <v>3801.70084</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>4659.31313</v>
+        <v>5906.59975</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>5995.37322</v>
+        <v>6677.64493</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2959.77683</v>
+        <v>8224.028200000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>6654.379019999999</v>
+        <v>15472.67663</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>6066.75755</v>
+        <v>9517.20372</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>7917.274270000001</v>
+        <v>15209.06039</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>3256.2558</v>
+        <v>7953.4553</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>10144.51611</v>
+        <v>28258.54744</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>8585.616840000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>15502.367</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>55984.91</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>433.73859</v>
+        <v>442.92149</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>337.68706</v>
+        <v>344.73939</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>434.35679</v>
+        <v>437.09649</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>387.23107</v>
+        <v>394.38017</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>279.10658</v>
+        <v>314.04667</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>318.38571</v>
+        <v>337.9505799999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>415.17049</v>
+        <v>438.74531</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>455.24739</v>
+        <v>469.74859</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>458.41247</v>
+        <v>464.42233</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>688.2827</v>
+        <v>860.0727800000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>717.14338</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>771.63602</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>851.09</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>280.0179200000001</v>
+        <v>722.5111000000001</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>316.8066</v>
@@ -2246,13 +2317,13 @@
         <v>286.2233000000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>249.28615</v>
+        <v>253.40315</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>545.6567700000001</v>
+        <v>555.6847700000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>129.88853</v>
+        <v>169.79753</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>262.94166</v>
@@ -2261,22 +2332,27 @@
         <v>299.58537</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>265.18821</v>
+        <v>667.25127</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>293.10697</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1600.93373</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1599.60873</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>263.319</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>3.848100000000001</v>
+        <v>4.097720000000001</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>116.21363</v>
@@ -2288,10 +2364,10 @@
         <v>207.08707</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>118.37262</v>
+        <v>161.10914</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>0.37606</v>
+        <v>54.92106</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>16.33093</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>121.73045</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>32.156</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>733.9675100000001</v>
+        <v>1191.17409</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>686.84754</v>
+        <v>1698.1973</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>824.4606400000001</v>
+        <v>2034.07406</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>582.96435</v>
+        <v>960.3166199999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>657.7070500000001</v>
+        <v>3253.62931</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>800.5559199999999</v>
+        <v>4036.7843</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1596.58466</v>
+        <v>4670.94699</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>980.8140500000001</v>
+        <v>7791.29344</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>908.4961500000001</v>
+        <v>4815.71585</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>6631.10497</v>
+        <v>24540.43945</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>3732.2074</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>10572.49992</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>18567.984</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>29.41736</v>
@@ -2366,19 +2452,19 @@
         <v>62.45480000000001</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>0</v>
+        <v>38.02649</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>13.78508</v>
+        <v>37.1951</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>4.90676</v>
+        <v>24.92588</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0.03312</v>
+        <v>0.16248</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0.00205</v>
+        <v>64.03784</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>217.53356</v>
@@ -2386,14 +2472,19 @@
       <c r="M41" s="48" t="n">
         <v>0.02275</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>79.45327</v>
+        <v>79.50540000000001</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>52.07629</v>
@@ -2414,7 +2505,7 @@
         <v>47.89006000000001</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>58.19217</v>
+        <v>58.27956</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>1.49424</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>80.62075</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>273.792</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1500.46556</v>
+        <v>2053.09113</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1169.81087</v>
+        <v>1251.5983</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>3043.40556</v>
+        <v>3078.33906</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>4494.78556</v>
+        <v>4788.4389</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1326.32911</v>
+        <v>3868.92712</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5344.769050000001</v>
+        <v>10789.40939</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3722.93299</v>
+        <v>4055.42289</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>6118.699380000001</v>
+        <v>6585.28816</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1604.39478</v>
+        <v>1922.26587</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1851.55015</v>
+        <v>1884.45692</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>2332.95838</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2356.24838</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>35996.569</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>7874.286810000001</v>
+        <v>10041.33169</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>5693.888980000001</v>
+        <v>6857.99764</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>6443.043070000001</v>
+        <v>7810.36545</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>7360.61608</v>
+        <v>8829.525519999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>5507.62455</v>
+        <v>6604.67824</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>5508.611140000001</v>
+        <v>7202.14736</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>5801.148169999999</v>
+        <v>8386.213189999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>6817.30953</v>
+        <v>9102.70738</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>7450.98409</v>
+        <v>21059.54345</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>16984.45045</v>
+        <v>26685.26783</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>18535.87709</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>31323.74014</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>21654.832</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>7401.83935</v>
+        <v>9568.88423</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>5329.22346</v>
+        <v>6493.332120000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>6133.09026</v>
+        <v>7352.3217</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>7039.33138</v>
+        <v>8261.102279999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>5195.55912</v>
+        <v>6246.205220000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>5336.31432</v>
+        <v>6991.49399</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>5527.46341</v>
+        <v>8003.69169</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>6562.64301</v>
+        <v>8705.830260000001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>7154.188619999999</v>
+        <v>16725.41312</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>16063.33744</v>
+        <v>21021.96119</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>17202.96599</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>29313.58199</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>20270.585</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>472.44746</v>
@@ -2555,241 +2666,271 @@
         <v>364.66552</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>309.95281</v>
+        <v>458.0437499999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>321.2846999999999</v>
+        <v>568.42324</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>312.06543</v>
+        <v>358.47302</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>172.29682</v>
+        <v>210.65337</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>273.68476</v>
+        <v>382.5215</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>254.66652</v>
+        <v>396.87712</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>296.79547</v>
+        <v>4334.13033</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>921.11301</v>
+        <v>5663.30664</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1332.9111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2010.15815</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1384.247</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-8005.587100000001</v>
+        <v>-6624.158899999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-5281.37508</v>
+        <v>55470.31728</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-12084.12167</v>
+        <v>-14399.73681</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-12140.93579</v>
+        <v>-17458.76347</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-18695.65512</v>
+        <v>-23548.07328</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-23418.26949</v>
+        <v>-21494.44532</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-28377.26347</v>
+        <v>-34818.11912999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-44560.11695</v>
+        <v>-61536.24167</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-54612.52346</v>
+        <v>-77845.05207999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-50062.46798</v>
+        <v>-62695.8193</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-89560.357</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-90392.73048</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-71558.351</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>3926.42524</v>
+        <v>4243.374329999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>5214.83611</v>
+        <v>7767.11297</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>8060.1205</v>
+        <v>9929.92297</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>7153.488800000001</v>
+        <v>8147.387630000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>8379.855150000001</v>
+        <v>10632.34329</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>5274.18729</v>
+        <v>7215.981589999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>6764.68636</v>
+        <v>8398.72164</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>9190.64819</v>
+        <v>29230.4767</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>12156.18286</v>
+        <v>16694.59271</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>18245.80418</v>
+        <v>20063.86391</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>17936.99591</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>20427.37801</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>24174.458</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>127.65467</v>
+        <v>127.75118</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>77.56589</v>
+        <v>77.57305000000001</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>368.27036</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>94.32306</v>
+        <v>94.4971</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>65.15639999999999</v>
+        <v>89.38209999999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>181.71631</v>
+        <v>221.89691</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>34.22963</v>
+        <v>678.49335</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>125.48475</v>
+        <v>131.24375</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>372.27696</v>
+        <v>471.77222</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>191.18003</v>
+        <v>215.49359</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>56.47015</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>126.47015</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>196.007</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>3798.77057</v>
+        <v>4115.62315</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>5137.270219999999</v>
+        <v>7689.53992</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>7691.85014</v>
+        <v>9561.652609999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>7059.16574</v>
+        <v>8052.890530000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>8314.69875</v>
+        <v>10542.96119</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>5092.47098</v>
+        <v>6994.08468</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>6730.456730000001</v>
+        <v>7720.22829</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>9065.163440000002</v>
+        <v>29099.23295</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>11783.9059</v>
+        <v>16222.82049</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>18054.62415</v>
+        <v>19848.37032</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>17880.52576</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>20300.90786</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>23978.451</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>6292.580300000001</v>
+        <v>6893.50008</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>7769.78081</v>
+        <v>9711.12113</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>35558.68494</v>
+        <v>46835.27189</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>10209.18603</v>
+        <v>11348.40624</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>8740.12075</v>
+        <v>10589.96386</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>15474.40696</v>
+        <v>20631.79683</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>11946.58042</v>
+        <v>14648.75573</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>26864.14956</v>
+        <v>37387.8596</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>13864.11213</v>
+        <v>17408.45843</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>33656.25515</v>
+        <v>36043.54098999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>16472.34493</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>18281.63786</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>21351.88</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>149.75653</v>
+        <v>220.02933</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>59.71589</v>
+        <v>270.53592</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>159.64412</v>
+        <v>166.64412</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>54.65280000000001</v>
@@ -2810,208 +2951,236 @@
         <v>1087.07634</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>635.9004699999999</v>
+        <v>674.97686</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>481.01503</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>512.1967</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1259.105</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>887.53075</v>
+        <v>899.9118599999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>975.7325</v>
+        <v>1046.25847</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>2203.00885</v>
+        <v>2208.03069</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1621.73024</v>
+        <v>1667.14133</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1056.88499</v>
+        <v>1193.99091</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>433.4336</v>
+        <v>515.1354399999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>877.83647</v>
+        <v>989.1715799999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>891.2689499999999</v>
+        <v>928.1040599999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>498.0924299999999</v>
+        <v>540.7872199999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>693.8050900000001</v>
+        <v>1043.79476</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1255.22298</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1298.1789</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>798.205</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>5255.29302</v>
+        <v>5773.558889999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>6734.33242</v>
+        <v>8394.32674</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>33196.03197</v>
+        <v>44460.59708</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>8532.80299</v>
+        <v>9626.61211</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>7520.32924</v>
+        <v>9233.066430000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>14887.74198</v>
+        <v>19963.43001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>11008.45563</v>
+        <v>13599.29583</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>25664.43656</v>
+        <v>36151.31149</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>12278.94336</v>
+        <v>15780.59487</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>32326.54959</v>
+        <v>34324.76936999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>14736.10692</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>16471.26226</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>19294.57</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-10371.74216</v>
+        <v>-9274.284649999998</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-7836.319779999999</v>
+        <v>53526.30912000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-39582.68611</v>
+        <v>-51305.08573000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-15196.63302</v>
+        <v>-20659.78208</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-19055.92072</v>
+        <v>-23505.69385</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-33618.48916</v>
+        <v>-34910.26056</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-33559.15753</v>
+        <v>-41068.15322000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-62233.61832</v>
+        <v>-69693.62457000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-56320.45273</v>
+        <v>-78558.91780000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-65472.91895000001</v>
+        <v>-78675.49638000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-88095.70602</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-88246.99033000002</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-68735.773</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>6320.22125</v>
+        <v>6808.377419999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>6779.138309999999</v>
+        <v>10013.20868</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>7110.704900000001</v>
+        <v>7573.031120000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>7429.60014</v>
+        <v>8052.189820000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>6060.61513</v>
+        <v>6933.671339999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>6037.660620000001</v>
+        <v>7317.50482</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>5800.50628</v>
+        <v>6538.168549999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>6157.100539999999</v>
+        <v>7359.2071</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>6311.47814</v>
+        <v>7725.02611</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>13253.69607</v>
+        <v>14267.72354</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>13664.15645</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>15530.53951</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>20155.034</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-16691.96341</v>
+        <v>-16082.66207</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-14615.45809</v>
+        <v>43513.10043999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-46693.39101</v>
+        <v>-58878.11684999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-22626.23316</v>
+        <v>-28711.9719</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-25116.53585</v>
+        <v>-30439.36519</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-39656.14978</v>
+        <v>-42227.76538</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-39359.66381</v>
+        <v>-47606.32177</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-68390.71885999999</v>
+        <v>-77052.83166999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-62631.93087</v>
+        <v>-86283.94391000002</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-78726.61502000001</v>
+        <v>-92943.21992</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-101759.86247</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-103777.52984</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-88890.807</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>5833</v>
+        <v>5924</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>5926</v>
+        <v>6029</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>6136</v>
+        <v>6277</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>5974</v>
+        <v>6184</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4964</v>
+        <v>5188</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3955</v>
+        <v>4150</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3791</v>
+        <v>4002</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3871</v>
+        <v>4131</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>4203</v>
+        <v>4489</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4522</v>
+        <v>4823</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4759</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>5310</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5698</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>